--- a/data/FY25Q3.xlsx
+++ b/data/FY25Q3.xlsx
@@ -5,15 +5,15 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morio/Downloads/123/25Q3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morio/Downloads/26Q1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631D8EDE-134D-FF48-9E20-3AC1C0D50D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B59874-186D-3048-A44E-C9E7E05C9C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="17540" windowHeight="20140" xr2:uid="{021FACC0-6583-9245-81B4-0A7BE4D712CF}"/>
   </bookViews>
   <sheets>
-    <sheet name="25Q1T" sheetId="4" r:id="rId1"/>
+    <sheet name="25Q3" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -445,7 +445,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -599,37 +599,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -638,247 +608,7 @@
     <cellStyle name="一般 2" xfId="2" xr:uid="{0CB5398D-811F-454E-A670-53B654D1D081}"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="70">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1328,7 +1058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E14355-6941-2845-BCEC-077BE07F4927}">
   <dimension ref="A1:CY84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="CG1" zoomScale="81" workbookViewId="0">
       <selection activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
@@ -1942,7 +1672,7 @@
       <c r="AA5" s="47"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="12">
-        <f t="shared" ref="AC5:AD6" si="4">AA5-S5</f>
+        <f t="shared" ref="AC5:AD5" si="4">AA5-S5</f>
         <v>0</v>
       </c>
       <c r="AD5" s="14">
@@ -1950,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="AE5" s="13" t="e">
-        <f t="shared" ref="AE5:AE6" si="5">(AB5-T5)/T5</f>
+        <f t="shared" ref="AE5" si="5">(AB5-T5)/T5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AF5" s="1"/>
@@ -1963,7 +1693,7 @@
       <c r="AI5" s="47"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="12">
-        <f t="shared" ref="AK5:AL6" si="6">AI5-AA5</f>
+        <f t="shared" ref="AK5:AL5" si="6">AI5-AA5</f>
         <v>0</v>
       </c>
       <c r="AL5" s="14">
@@ -1971,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="AM5" s="13" t="e">
-        <f t="shared" ref="AM5:AM6" si="7">(AJ5-AB5)/AB5</f>
+        <f t="shared" ref="AM5" si="7">(AJ5-AB5)/AB5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AN5" s="1"/>
@@ -1984,7 +1714,7 @@
       <c r="AQ5" s="47"/>
       <c r="AR5" s="1"/>
       <c r="AS5" s="12">
-        <f t="shared" ref="AS5:AT6" si="8">AQ5-AI5</f>
+        <f t="shared" ref="AS5:AT5" si="8">AQ5-AI5</f>
         <v>0</v>
       </c>
       <c r="AT5" s="14">
@@ -1992,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="AU5" s="13" t="e">
-        <f t="shared" ref="AU5:AU6" si="9">(AR5-AJ5)/AJ5</f>
+        <f t="shared" ref="AU5" si="9">(AR5-AJ5)/AJ5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AV5" s="1"/>
@@ -2005,7 +1735,7 @@
       <c r="AY5" s="47"/>
       <c r="AZ5" s="1"/>
       <c r="BA5" s="12">
-        <f t="shared" ref="BA5:BB6" si="10">AY5-AQ5</f>
+        <f t="shared" ref="BA5:BB5" si="10">AY5-AQ5</f>
         <v>0</v>
       </c>
       <c r="BB5" s="14">
@@ -2013,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="BC5" s="13" t="e">
-        <f t="shared" ref="BC5:BC6" si="11">(AZ5-AR5)/AR5</f>
+        <f t="shared" ref="BC5" si="11">(AZ5-AR5)/AR5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BD5" s="49"/>
@@ -2026,7 +1756,7 @@
       <c r="BG5" s="17"/>
       <c r="BH5" s="39"/>
       <c r="BI5" s="12">
-        <f t="shared" ref="BI5:BJ6" si="12">BG5-AY5</f>
+        <f t="shared" ref="BI5:BJ5" si="12">BG5-AY5</f>
         <v>0</v>
       </c>
       <c r="BJ5" s="14">
@@ -2034,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="BK5" s="13" t="e">
-        <f t="shared" ref="BK5:BK6" si="13">(BH5-AZ5)/AZ5</f>
+        <f t="shared" ref="BK5" si="13">(BH5-AZ5)/AZ5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BL5" s="49"/>
@@ -2047,7 +1777,7 @@
       <c r="BO5" s="17"/>
       <c r="BP5" s="39"/>
       <c r="BQ5" s="12">
-        <f t="shared" ref="BQ5:BR6" si="14">BO5-BG5</f>
+        <f t="shared" ref="BQ5:BR5" si="14">BO5-BG5</f>
         <v>0</v>
       </c>
       <c r="BR5" s="14">
@@ -2055,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="BS5" s="13" t="e">
-        <f t="shared" ref="BS5:BS6" si="15">(BP5-BH5)/BH5</f>
+        <f t="shared" ref="BS5" si="15">(BP5-BH5)/BH5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BU5" s="16">
@@ -2197,15 +1927,15 @@
         <v>2190.4761904699999</v>
       </c>
       <c r="M7" s="12">
-        <f t="shared" ref="M7:M17" si="16">K7-C7</f>
+        <f t="shared" ref="M7:M16" si="16">K7-C7</f>
         <v>3</v>
       </c>
       <c r="N7" s="14">
-        <f t="shared" ref="N7:N17" si="17">L7-D7</f>
+        <f t="shared" ref="N7:N16" si="17">L7-D7</f>
         <v>2190.4761904699999</v>
       </c>
       <c r="O7" s="13" t="e">
-        <f t="shared" ref="O7:O17" si="18">(L7-D7)/D7</f>
+        <f t="shared" ref="O7:O16" si="18">(L7-D7)/D7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q7" s="16"/>
@@ -2219,15 +1949,15 @@
         <v>0</v>
       </c>
       <c r="U7" s="12">
-        <f t="shared" ref="U7:U17" si="19">S7-K7</f>
+        <f t="shared" ref="U7:U16" si="19">S7-K7</f>
         <v>-3</v>
       </c>
       <c r="V7" s="14">
-        <f t="shared" ref="V7:V17" si="20">T7-L7</f>
+        <f t="shared" ref="V7:V16" si="20">T7-L7</f>
         <v>-2190.4761904699999</v>
       </c>
       <c r="W7" s="13">
-        <f t="shared" ref="W7:W17" si="21">(T7-L7)/L7</f>
+        <f t="shared" ref="W7:W16" si="21">(T7-L7)/L7</f>
         <v>-1</v>
       </c>
       <c r="Y7" s="16"/>
@@ -2241,15 +1971,15 @@
         <v>0</v>
       </c>
       <c r="AC7" s="14">
-        <f t="shared" ref="AC7:AC17" si="22">AA7-S7</f>
+        <f t="shared" ref="AC7:AC16" si="22">AA7-S7</f>
         <v>0</v>
       </c>
       <c r="AD7" s="14">
-        <f t="shared" ref="AD7:AD17" si="23">AB7-T7</f>
+        <f t="shared" ref="AD7:AD16" si="23">AB7-T7</f>
         <v>0</v>
       </c>
       <c r="AE7" s="13" t="e">
-        <f t="shared" ref="AE7:AE17" si="24">(AB7-T7)/T7</f>
+        <f t="shared" ref="AE7:AE16" si="24">(AB7-T7)/T7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AG7" s="16"/>
@@ -2263,15 +1993,15 @@
         <v>1133</v>
       </c>
       <c r="AK7" s="12">
-        <f t="shared" ref="AK7:AK17" si="25">AI7-AA7</f>
+        <f t="shared" ref="AK7:AK16" si="25">AI7-AA7</f>
         <v>1</v>
       </c>
       <c r="AL7" s="14">
-        <f t="shared" ref="AL7:AL17" si="26">AJ7-AB7</f>
+        <f t="shared" ref="AL7:AL16" si="26">AJ7-AB7</f>
         <v>1133</v>
       </c>
       <c r="AM7" s="13" t="e">
-        <f t="shared" ref="AM7:AM17" si="27">(AJ7-AB7)/AB7</f>
+        <f t="shared" ref="AM7:AM16" si="27">(AJ7-AB7)/AB7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO7" s="16"/>
@@ -2285,15 +2015,15 @@
         <v>0</v>
       </c>
       <c r="AS7" s="12">
-        <f t="shared" ref="AS7:AS17" si="28">AQ7-AI7</f>
+        <f t="shared" ref="AS7:AS16" si="28">AQ7-AI7</f>
         <v>-1</v>
       </c>
       <c r="AT7" s="14">
-        <f t="shared" ref="AT7:AT17" si="29">AR7-AJ7</f>
+        <f t="shared" ref="AT7:AT16" si="29">AR7-AJ7</f>
         <v>-1133</v>
       </c>
       <c r="AU7" s="13">
-        <f t="shared" ref="AU7:AU17" si="30">(AR7-AJ7)/AJ7</f>
+        <f t="shared" ref="AU7:AU16" si="30">(AR7-AJ7)/AJ7</f>
         <v>-1</v>
       </c>
       <c r="AW7" s="16"/>
@@ -2307,15 +2037,15 @@
         <v>0</v>
       </c>
       <c r="BA7" s="12">
-        <f t="shared" ref="BA7:BA17" si="31">AY7-AQ7</f>
+        <f t="shared" ref="BA7:BA16" si="31">AY7-AQ7</f>
         <v>0</v>
       </c>
       <c r="BB7" s="14">
-        <f t="shared" ref="BB7:BB17" si="32">AZ7-AR7</f>
+        <f t="shared" ref="BB7:BB16" si="32">AZ7-AR7</f>
         <v>0</v>
       </c>
       <c r="BC7" s="13" t="e">
-        <f t="shared" ref="BC7:BC17" si="33">(AZ7-AR7)/AR7</f>
+        <f t="shared" ref="BC7:BC16" si="33">(AZ7-AR7)/AR7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE7" s="16"/>
@@ -2329,15 +2059,15 @@
         <v>0</v>
       </c>
       <c r="BI7" s="12">
-        <f t="shared" ref="BI7:BI17" si="34">BG7-AY7</f>
+        <f t="shared" ref="BI7:BI16" si="34">BG7-AY7</f>
         <v>0</v>
       </c>
       <c r="BJ7" s="14">
-        <f t="shared" ref="BJ7:BJ17" si="35">BH7-AZ7</f>
+        <f t="shared" ref="BJ7:BJ16" si="35">BH7-AZ7</f>
         <v>0</v>
       </c>
       <c r="BK7" s="13" t="e">
-        <f t="shared" ref="BK7:BK17" si="36">(BH7-AZ7)/AZ7</f>
+        <f t="shared" ref="BK7:BK16" si="36">(BH7-AZ7)/AZ7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BL7" s="35"/>
@@ -2352,15 +2082,15 @@
         <v>0</v>
       </c>
       <c r="BQ7" s="12">
-        <f t="shared" ref="BQ7:BQ17" si="37">BO7-BG7</f>
+        <f t="shared" ref="BQ7:BQ16" si="37">BO7-BG7</f>
         <v>0</v>
       </c>
       <c r="BR7" s="14">
-        <f t="shared" ref="BR7:BR17" si="38">BP7-BH7</f>
+        <f t="shared" ref="BR7:BR16" si="38">BP7-BH7</f>
         <v>0</v>
       </c>
       <c r="BS7" s="13" t="e">
-        <f t="shared" ref="BS7:BS17" si="39">(BP7-BH7)/BH7</f>
+        <f t="shared" ref="BS7:BS16" si="39">(BP7-BH7)/BH7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BU7" s="16"/>
@@ -5280,15 +5010,15 @@
         <v>148713.33333274</v>
       </c>
       <c r="M19" s="12">
-        <f t="shared" ref="M19:M29" si="52">K19-C19</f>
+        <f t="shared" ref="M19:M28" si="52">K19-C19</f>
         <v>-97</v>
       </c>
       <c r="N19" s="14">
-        <f t="shared" ref="N19:N29" si="53">L19-D19</f>
+        <f t="shared" ref="N19:N28" si="53">L19-D19</f>
         <v>-95998.095237890055</v>
       </c>
       <c r="O19" s="13">
-        <f t="shared" ref="O19:O29" si="54">(L19-D19)/D19</f>
+        <f t="shared" ref="O19:O28" si="54">(L19-D19)/D19</f>
         <v>-0.39229101721410825</v>
       </c>
       <c r="Q19" s="16"/>
@@ -5302,15 +5032,15 @@
         <v>217073.3333325701</v>
       </c>
       <c r="U19" s="12">
-        <f t="shared" ref="U19:U29" si="55">S19-K19</f>
+        <f t="shared" ref="U19:U28" si="55">S19-K19</f>
         <v>103</v>
       </c>
       <c r="V19" s="14">
-        <f t="shared" ref="V19:V29" si="56">T19-L19</f>
+        <f t="shared" ref="V19:V28" si="56">T19-L19</f>
         <v>68359.999999830092</v>
       </c>
       <c r="W19" s="13">
-        <f t="shared" ref="W19:W29" si="57">(T19-L19)/L19</f>
+        <f t="shared" ref="W19:W28" si="57">(T19-L19)/L19</f>
         <v>0.45967633478349507</v>
       </c>
       <c r="Y19" s="16"/>
@@ -5324,15 +5054,15 @@
         <v>256499.04761818014</v>
       </c>
       <c r="AC19" s="14">
-        <f t="shared" ref="AC19:AC29" si="58">AA19-S19</f>
+        <f t="shared" ref="AC19:AC28" si="58">AA19-S19</f>
         <v>-18</v>
       </c>
       <c r="AD19" s="14">
-        <f t="shared" ref="AD19:AD29" si="59">AB19-T19</f>
+        <f t="shared" ref="AD19:AD28" si="59">AB19-T19</f>
         <v>39425.71428561004</v>
       </c>
       <c r="AE19" s="13">
-        <f t="shared" ref="AE19:AE29" si="60">(AB19-T19)/T19</f>
+        <f t="shared" ref="AE19:AE28" si="60">(AB19-T19)/T19</f>
         <v>0.18162394099881143</v>
       </c>
       <c r="AG19" s="16"/>
@@ -5346,15 +5076,15 @@
         <v>249810.47618945007</v>
       </c>
       <c r="AK19" s="12">
-        <f t="shared" ref="AK19:AK29" si="61">AI19-AA19</f>
+        <f t="shared" ref="AK19:AK28" si="61">AI19-AA19</f>
         <v>20</v>
       </c>
       <c r="AL19" s="14">
-        <f t="shared" ref="AL19:AL29" si="62">AJ19-AB19</f>
+        <f t="shared" ref="AL19:AL28" si="62">AJ19-AB19</f>
         <v>-6688.5714287300652</v>
       </c>
       <c r="AM19" s="13">
-        <f t="shared" ref="AM19:AM29" si="63">(AJ19-AB19)/AB19</f>
+        <f t="shared" ref="AM19:AM28" si="63">(AJ19-AB19)/AB19</f>
         <v>-2.6076398687789874E-2</v>
       </c>
       <c r="AO19" s="16"/>
@@ -5376,7 +5106,7 @@
         <v>-66620.952380660048</v>
       </c>
       <c r="AU19" s="13">
-        <f t="shared" ref="AU19:AU29" si="65">(AR19-AJ19)/AJ19</f>
+        <f t="shared" ref="AU19:AU28" si="65">(AR19-AJ19)/AJ19</f>
         <v>-0.26668598289743611</v>
       </c>
       <c r="AW19" s="16"/>
@@ -5390,15 +5120,15 @@
         <v>155064.76190422999</v>
       </c>
       <c r="BA19" s="12">
-        <f t="shared" ref="BA19:BA29" si="66">AY19-AQ19</f>
+        <f t="shared" ref="BA19:BA28" si="66">AY19-AQ19</f>
         <v>-59</v>
       </c>
       <c r="BB19" s="14">
-        <f t="shared" ref="BB19:BB29" si="67">AZ19-AR19</f>
+        <f t="shared" ref="BB19:BB28" si="67">AZ19-AR19</f>
         <v>-28124.76190456003</v>
       </c>
       <c r="BC19" s="13">
-        <f t="shared" ref="BC19:BC29" si="68">(AZ19-AR19)/AR19</f>
+        <f t="shared" ref="BC19:BC28" si="68">(AZ19-AR19)/AR19</f>
         <v>-0.15352822213739775</v>
       </c>
       <c r="BE19" s="16"/>
@@ -5412,15 +5142,15 @@
         <v>152877.14285650002</v>
       </c>
       <c r="BI19" s="12">
-        <f t="shared" ref="BI19:BI29" si="69">BG19-AY19</f>
+        <f t="shared" ref="BI19:BI28" si="69">BG19-AY19</f>
         <v>19</v>
       </c>
       <c r="BJ19" s="14">
-        <f t="shared" ref="BJ19:BJ29" si="70">BH19-AZ19</f>
+        <f t="shared" ref="BJ19:BJ28" si="70">BH19-AZ19</f>
         <v>-2187.6190477299679</v>
       </c>
       <c r="BK19" s="13">
-        <f t="shared" ref="BK19:BK29" si="71">(BH19-AZ19)/AZ19</f>
+        <f t="shared" ref="BK19:BK28" si="71">(BH19-AZ19)/AZ19</f>
         <v>-1.410777678220065E-2</v>
       </c>
       <c r="BL19" s="35"/>
@@ -5435,15 +5165,15 @@
         <v>209921.90476113991</v>
       </c>
       <c r="BQ19" s="12">
-        <f t="shared" ref="BQ19:BQ29" si="72">BO19-BG19</f>
+        <f t="shared" ref="BQ19:BQ28" si="72">BO19-BG19</f>
         <v>28</v>
       </c>
       <c r="BR19" s="14">
-        <f t="shared" ref="BR19:BR29" si="73">BP19-BH19</f>
+        <f t="shared" ref="BR19:BR28" si="73">BP19-BH19</f>
         <v>57044.76190463989</v>
       </c>
       <c r="BS19" s="13">
-        <f t="shared" ref="BS19:BS29" si="74">(BP19-BH19)/BH19</f>
+        <f t="shared" ref="BS19:BS28" si="74">(BP19-BH19)/BH19</f>
         <v>0.37314120893916525</v>
       </c>
       <c r="BU19" s="16"/>
@@ -8358,15 +8088,15 @@
         <v>93614.28571395998</v>
       </c>
       <c r="M31" s="12">
-        <f t="shared" ref="M31:M41" si="87">K31-C31</f>
+        <f t="shared" ref="M31:M40" si="87">K31-C31</f>
         <v>-57</v>
       </c>
       <c r="N31" s="14">
-        <f t="shared" ref="N31:N41" si="88">L31-D31</f>
+        <f t="shared" ref="N31:N40" si="88">L31-D31</f>
         <v>-22003.809523760036</v>
       </c>
       <c r="O31" s="13">
-        <f t="shared" ref="O31:O41" si="89">(L31-D31)/D31</f>
+        <f t="shared" ref="O31:O40" si="89">(L31-D31)/D31</f>
         <v>-0.19031458249263189</v>
       </c>
       <c r="Q31" s="41"/>
@@ -8380,15 +8110,15 @@
         <v>79193.333333009999</v>
       </c>
       <c r="U31" s="12">
-        <f t="shared" ref="U31:U41" si="90">S31-K31</f>
+        <f t="shared" ref="U31:U40" si="90">S31-K31</f>
         <v>-21</v>
       </c>
       <c r="V31" s="14">
-        <f t="shared" ref="V31:V41" si="91">T31-L31</f>
+        <f t="shared" ref="V31:V40" si="91">T31-L31</f>
         <v>-14420.952380949981</v>
       </c>
       <c r="W31" s="13">
-        <f t="shared" ref="W31:W41" si="92">(T31-L31)/L31</f>
+        <f t="shared" ref="W31:W40" si="92">(T31-L31)/L31</f>
         <v>-0.15404649270105464</v>
       </c>
       <c r="Y31" s="41"/>
@@ -8402,15 +8132,15 @@
         <v>86118.095237679998</v>
       </c>
       <c r="AC31" s="12">
-        <f t="shared" ref="AC31:AC41" si="93">AA31-S31</f>
+        <f t="shared" ref="AC31:AC40" si="93">AA31-S31</f>
         <v>14</v>
       </c>
       <c r="AD31" s="14">
-        <f t="shared" ref="AD31:AD41" si="94">AB31-T31</f>
+        <f t="shared" ref="AD31:AD40" si="94">AB31-T31</f>
         <v>6924.7619046699983</v>
       </c>
       <c r="AE31" s="13">
-        <f t="shared" ref="AE31:AE41" si="95">(AB31-T31)/T31</f>
+        <f t="shared" ref="AE31:AE40" si="95">(AB31-T31)/T31</f>
         <v>8.7441222805348995E-2</v>
       </c>
       <c r="AG31" s="41"/>
@@ -8424,15 +8154,15 @@
         <v>106509.52380911993</v>
       </c>
       <c r="AK31" s="12">
-        <f t="shared" ref="AK31:AK41" si="96">AI31-AA31</f>
+        <f t="shared" ref="AK31:AK40" si="96">AI31-AA31</f>
         <v>-1</v>
       </c>
       <c r="AL31" s="14">
-        <f t="shared" ref="AL31:AL41" si="97">AJ31-AB31</f>
+        <f t="shared" ref="AL31:AL40" si="97">AJ31-AB31</f>
         <v>20391.42857143993</v>
       </c>
       <c r="AM31" s="13">
-        <f t="shared" ref="AM31:AM41" si="98">(AJ31-AB31)/AB31</f>
+        <f t="shared" ref="AM31:AM40" si="98">(AJ31-AB31)/AB31</f>
         <v>0.23678448199720389</v>
       </c>
       <c r="AO31" s="41"/>
@@ -8446,15 +8176,15 @@
         <v>86659.999999630003</v>
       </c>
       <c r="AS31" s="12">
-        <f t="shared" ref="AS31:AS41" si="99">AQ31-AI31</f>
+        <f t="shared" ref="AS31:AS40" si="99">AQ31-AI31</f>
         <v>4</v>
       </c>
       <c r="AT31" s="14">
-        <f t="shared" ref="AT31:AT41" si="100">AR31-AJ31</f>
+        <f t="shared" ref="AT31:AT40" si="100">AR31-AJ31</f>
         <v>-19849.523809489925</v>
       </c>
       <c r="AU31" s="13">
-        <f t="shared" ref="AU31:AU41" si="101">(AR31-AJ31)/AJ31</f>
+        <f t="shared" ref="AU31:AU40" si="101">(AR31-AJ31)/AJ31</f>
         <v>-0.1863638395854916</v>
       </c>
       <c r="AW31" s="41"/>
@@ -8468,15 +8198,15 @@
         <v>103450.47619014996</v>
       </c>
       <c r="BA31" s="12">
-        <f t="shared" ref="BA31:BA41" si="102">AY31-AQ31</f>
+        <f t="shared" ref="BA31:BA40" si="102">AY31-AQ31</f>
         <v>-3</v>
       </c>
       <c r="BB31" s="14">
-        <f t="shared" ref="BB31:BB41" si="103">AZ31-AR31</f>
+        <f t="shared" ref="BB31:BB40" si="103">AZ31-AR31</f>
         <v>16790.476190519956</v>
       </c>
       <c r="BC31" s="13">
-        <f t="shared" ref="BC31:BC41" si="104">(AZ31-AR31)/AR31</f>
+        <f t="shared" ref="BC31:BC40" si="104">(AZ31-AR31)/AR31</f>
         <v>0.19375116767357078</v>
       </c>
       <c r="BE31" s="41"/>
@@ -8490,15 +8220,15 @@
         <v>118899.04761868993</v>
       </c>
       <c r="BI31" s="12">
-        <f t="shared" ref="BI31:BI41" si="105">BG31-AY31</f>
+        <f t="shared" ref="BI31:BI40" si="105">BG31-AY31</f>
         <v>46</v>
       </c>
       <c r="BJ31" s="14">
-        <f t="shared" ref="BJ31:BJ41" si="106">BH31-AZ31</f>
+        <f t="shared" ref="BJ31:BJ40" si="106">BH31-AZ31</f>
         <v>15448.571428539974</v>
       </c>
       <c r="BK31" s="13">
-        <f t="shared" ref="BK31:BK41" si="107">(BH31-AZ31)/AZ31</f>
+        <f t="shared" ref="BK31:BK40" si="107">(BH31-AZ31)/AZ31</f>
         <v>0.14933301418684924</v>
       </c>
       <c r="BL31" s="35"/>
@@ -8513,15 +8243,15 @@
         <v>153012.38095193997</v>
       </c>
       <c r="BQ31" s="12">
-        <f t="shared" ref="BQ31:BQ41" si="108">BO31-BG31</f>
+        <f t="shared" ref="BQ31:BQ40" si="108">BO31-BG31</f>
         <v>-2</v>
       </c>
       <c r="BR31" s="14">
-        <f t="shared" ref="BR31:BR41" si="109">BP31-BH31</f>
+        <f t="shared" ref="BR31:BR40" si="109">BP31-BH31</f>
         <v>34113.333333250033</v>
       </c>
       <c r="BS31" s="13">
-        <f t="shared" ref="BS31:BS41" si="110">(BP31-BH31)/BH31</f>
+        <f t="shared" ref="BS31:BS40" si="110">(BP31-BH31)/BH31</f>
         <v>0.28691006375973449</v>
       </c>
       <c r="BU31" s="41"/>
@@ -17574,768 +17304,754 @@
         <v>-8.4837824092354019E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:103" s="51" customFormat="1">
-      <c r="BH73" s="52"/>
-      <c r="BI73" s="52"/>
-      <c r="BJ73" s="52"/>
-      <c r="BK73" s="52"/>
-      <c r="BL73" s="52"/>
+    <row r="75" spans="1:103" s="17" customFormat="1" ht="22" customHeight="1">
+      <c r="A75" s="15"/>
+      <c r="B75" s="34"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="34"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="40"/>
+      <c r="N75" s="40"/>
+      <c r="O75" s="40"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="34"/>
+      <c r="T75" s="39"/>
+      <c r="U75" s="40"/>
+      <c r="V75" s="40"/>
+      <c r="W75" s="40"/>
+      <c r="Y75" s="15"/>
+      <c r="Z75" s="34"/>
+      <c r="AB75" s="39"/>
+      <c r="AC75" s="40"/>
+      <c r="AD75" s="40"/>
+      <c r="AE75" s="40"/>
+      <c r="AG75" s="15"/>
+      <c r="AH75" s="34"/>
+      <c r="AJ75" s="39"/>
+      <c r="AK75" s="40"/>
+      <c r="AL75" s="40"/>
+      <c r="AM75" s="40"/>
+      <c r="AO75" s="15"/>
+      <c r="AP75" s="34"/>
+      <c r="AR75" s="39"/>
+      <c r="AS75" s="40"/>
+      <c r="AT75" s="40"/>
+      <c r="AU75" s="40"/>
+      <c r="AW75" s="15"/>
+      <c r="AX75" s="34"/>
+      <c r="AZ75" s="39"/>
+      <c r="BA75" s="40"/>
+      <c r="BB75" s="40"/>
+      <c r="BC75" s="40"/>
+      <c r="BE75" s="15"/>
+      <c r="BF75" s="34"/>
+      <c r="BH75" s="39"/>
+      <c r="BI75" s="40"/>
+      <c r="BJ75" s="40"/>
+      <c r="BK75" s="40"/>
+      <c r="BM75" s="15"/>
+      <c r="BN75" s="34"/>
+      <c r="BP75" s="39"/>
+      <c r="BQ75" s="40"/>
+      <c r="BR75" s="40"/>
+      <c r="BS75" s="40"/>
+      <c r="BU75" s="15"/>
+      <c r="BV75" s="34"/>
+      <c r="BW75" s="39"/>
+      <c r="BX75" s="40"/>
+      <c r="BY75" s="40"/>
+      <c r="BZ75" s="40"/>
+      <c r="CB75" s="34"/>
+      <c r="CC75" s="15"/>
+      <c r="CD75" s="34"/>
+      <c r="CE75" s="39"/>
+      <c r="CF75" s="40"/>
+      <c r="CG75" s="40"/>
+      <c r="CH75" s="40"/>
+      <c r="CJ75" s="34"/>
+      <c r="CK75" s="15"/>
+      <c r="CL75" s="34"/>
+      <c r="CM75" s="39"/>
+      <c r="CN75" s="40"/>
+      <c r="CO75" s="40"/>
+      <c r="CP75" s="40"/>
+      <c r="CR75" s="34"/>
+      <c r="CS75" s="15"/>
+      <c r="CT75" s="34"/>
+      <c r="CU75" s="39"/>
+      <c r="CV75" s="39"/>
+      <c r="CW75" s="40"/>
+      <c r="CX75" s="40"/>
+      <c r="CY75" s="40"/>
     </row>
-    <row r="74" spans="1:103" s="51" customFormat="1">
-      <c r="BH74" s="52"/>
-      <c r="BI74" s="52"/>
-      <c r="BJ74" s="52"/>
-      <c r="BK74" s="52"/>
-      <c r="BL74" s="52"/>
+    <row r="76" spans="1:103" s="17" customFormat="1" ht="22" customHeight="1">
+      <c r="A76" s="15"/>
+      <c r="B76" s="34"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="34"/>
+      <c r="L76" s="39"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="40"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="34"/>
+      <c r="T76" s="39"/>
+      <c r="U76" s="40"/>
+      <c r="V76" s="40"/>
+      <c r="W76" s="40"/>
+      <c r="Y76" s="15"/>
+      <c r="Z76" s="34"/>
+      <c r="AB76" s="39"/>
+      <c r="AC76" s="40"/>
+      <c r="AD76" s="40"/>
+      <c r="AE76" s="40"/>
+      <c r="AG76" s="15"/>
+      <c r="AH76" s="34"/>
+      <c r="AJ76" s="39"/>
+      <c r="AK76" s="40"/>
+      <c r="AL76" s="40"/>
+      <c r="AM76" s="40"/>
+      <c r="AO76" s="15"/>
+      <c r="AP76" s="34"/>
+      <c r="AR76" s="39"/>
+      <c r="AS76" s="40"/>
+      <c r="AT76" s="40"/>
+      <c r="AU76" s="40"/>
+      <c r="AW76" s="15"/>
+      <c r="AX76" s="34"/>
+      <c r="AZ76" s="39"/>
+      <c r="BA76" s="40"/>
+      <c r="BB76" s="40"/>
+      <c r="BC76" s="40"/>
+      <c r="BE76" s="15"/>
+      <c r="BF76" s="34"/>
+      <c r="BH76" s="39"/>
+      <c r="BI76" s="40"/>
+      <c r="BJ76" s="40"/>
+      <c r="BK76" s="40"/>
+      <c r="BM76" s="15"/>
+      <c r="BN76" s="34"/>
+      <c r="BP76" s="39"/>
+      <c r="BQ76" s="40"/>
+      <c r="BR76" s="40"/>
+      <c r="BS76" s="40"/>
+      <c r="BU76" s="15"/>
+      <c r="BV76" s="34"/>
+      <c r="BW76" s="39"/>
+      <c r="BX76" s="40"/>
+      <c r="BY76" s="40"/>
+      <c r="BZ76" s="40"/>
+      <c r="CB76" s="34"/>
+      <c r="CC76" s="15"/>
+      <c r="CD76" s="34"/>
+      <c r="CE76" s="39"/>
+      <c r="CF76" s="40"/>
+      <c r="CG76" s="40"/>
+      <c r="CH76" s="40"/>
+      <c r="CJ76" s="34"/>
+      <c r="CK76" s="15"/>
+      <c r="CL76" s="34"/>
+      <c r="CM76" s="39"/>
+      <c r="CN76" s="40"/>
+      <c r="CO76" s="40"/>
+      <c r="CP76" s="40"/>
+      <c r="CR76" s="34"/>
+      <c r="CS76" s="15"/>
+      <c r="CT76" s="34"/>
+      <c r="CU76" s="39"/>
+      <c r="CV76" s="39"/>
+      <c r="CW76" s="40"/>
+      <c r="CX76" s="40"/>
+      <c r="CY76" s="40"/>
     </row>
-    <row r="75" spans="1:103" s="55" customFormat="1" ht="22" customHeight="1">
-      <c r="A75" s="53"/>
-      <c r="B75" s="54"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="57"/>
-      <c r="F75" s="57"/>
-      <c r="G75" s="57"/>
-      <c r="I75" s="53"/>
-      <c r="J75" s="54"/>
-      <c r="L75" s="56"/>
-      <c r="M75" s="57"/>
-      <c r="N75" s="57"/>
-      <c r="O75" s="57"/>
-      <c r="Q75" s="53"/>
-      <c r="R75" s="54"/>
-      <c r="T75" s="56"/>
-      <c r="U75" s="57"/>
-      <c r="V75" s="57"/>
-      <c r="W75" s="57"/>
-      <c r="Y75" s="53"/>
-      <c r="Z75" s="54"/>
-      <c r="AB75" s="56"/>
-      <c r="AC75" s="57"/>
-      <c r="AD75" s="57"/>
-      <c r="AE75" s="57"/>
-      <c r="AG75" s="53"/>
-      <c r="AH75" s="54"/>
-      <c r="AJ75" s="56"/>
-      <c r="AK75" s="57"/>
-      <c r="AL75" s="57"/>
-      <c r="AM75" s="57"/>
-      <c r="AO75" s="53"/>
-      <c r="AP75" s="54"/>
-      <c r="AR75" s="56"/>
-      <c r="AS75" s="57"/>
-      <c r="AT75" s="57"/>
-      <c r="AU75" s="57"/>
-      <c r="AW75" s="53"/>
-      <c r="AX75" s="54"/>
-      <c r="AZ75" s="56"/>
-      <c r="BA75" s="57"/>
-      <c r="BB75" s="57"/>
-      <c r="BC75" s="57"/>
-      <c r="BE75" s="53"/>
-      <c r="BF75" s="54"/>
-      <c r="BH75" s="56"/>
-      <c r="BI75" s="57"/>
-      <c r="BJ75" s="57"/>
-      <c r="BK75" s="57"/>
-      <c r="BM75" s="53"/>
-      <c r="BN75" s="54"/>
-      <c r="BP75" s="56"/>
-      <c r="BQ75" s="57"/>
-      <c r="BR75" s="57"/>
-      <c r="BS75" s="57"/>
-      <c r="BU75" s="53"/>
-      <c r="BV75" s="54"/>
-      <c r="BW75" s="56"/>
-      <c r="BX75" s="57"/>
-      <c r="BY75" s="57"/>
-      <c r="BZ75" s="57"/>
-      <c r="CB75" s="54"/>
-      <c r="CC75" s="53"/>
-      <c r="CD75" s="54"/>
-      <c r="CE75" s="56"/>
-      <c r="CF75" s="57"/>
-      <c r="CG75" s="57"/>
-      <c r="CH75" s="57"/>
-      <c r="CJ75" s="54"/>
-      <c r="CK75" s="53"/>
-      <c r="CL75" s="54"/>
-      <c r="CM75" s="56"/>
-      <c r="CN75" s="57"/>
-      <c r="CO75" s="57"/>
-      <c r="CP75" s="57"/>
-      <c r="CR75" s="54"/>
-      <c r="CS75" s="53"/>
-      <c r="CT75" s="54"/>
-      <c r="CU75" s="56"/>
-      <c r="CV75" s="56"/>
-      <c r="CW75" s="57"/>
-      <c r="CX75" s="57"/>
-      <c r="CY75" s="57"/>
-    </row>
-    <row r="76" spans="1:103" s="55" customFormat="1" ht="22" customHeight="1">
-      <c r="A76" s="53"/>
-      <c r="B76" s="54"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="57"/>
-      <c r="F76" s="57"/>
-      <c r="G76" s="57"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="54"/>
-      <c r="L76" s="56"/>
-      <c r="M76" s="57"/>
-      <c r="N76" s="57"/>
-      <c r="O76" s="57"/>
-      <c r="Q76" s="53"/>
-      <c r="R76" s="54"/>
-      <c r="T76" s="56"/>
-      <c r="U76" s="57"/>
-      <c r="V76" s="57"/>
-      <c r="W76" s="57"/>
-      <c r="Y76" s="53"/>
-      <c r="Z76" s="54"/>
-      <c r="AB76" s="56"/>
-      <c r="AC76" s="57"/>
-      <c r="AD76" s="57"/>
-      <c r="AE76" s="57"/>
-      <c r="AG76" s="53"/>
-      <c r="AH76" s="54"/>
-      <c r="AJ76" s="56"/>
-      <c r="AK76" s="57"/>
-      <c r="AL76" s="57"/>
-      <c r="AM76" s="57"/>
-      <c r="AO76" s="53"/>
-      <c r="AP76" s="54"/>
-      <c r="AR76" s="56"/>
-      <c r="AS76" s="57"/>
-      <c r="AT76" s="57"/>
-      <c r="AU76" s="57"/>
-      <c r="AW76" s="53"/>
-      <c r="AX76" s="54"/>
-      <c r="AZ76" s="56"/>
-      <c r="BA76" s="57"/>
-      <c r="BB76" s="57"/>
-      <c r="BC76" s="57"/>
-      <c r="BE76" s="53"/>
-      <c r="BF76" s="54"/>
-      <c r="BH76" s="56"/>
-      <c r="BI76" s="57"/>
-      <c r="BJ76" s="57"/>
-      <c r="BK76" s="57"/>
-      <c r="BM76" s="53"/>
-      <c r="BN76" s="54"/>
-      <c r="BP76" s="56"/>
-      <c r="BQ76" s="57"/>
-      <c r="BR76" s="57"/>
-      <c r="BS76" s="57"/>
-      <c r="BU76" s="53"/>
-      <c r="BV76" s="54"/>
-      <c r="BW76" s="56"/>
-      <c r="BX76" s="57"/>
-      <c r="BY76" s="57"/>
-      <c r="BZ76" s="57"/>
-      <c r="CB76" s="54"/>
-      <c r="CC76" s="53"/>
-      <c r="CD76" s="54"/>
-      <c r="CE76" s="56"/>
-      <c r="CF76" s="57"/>
-      <c r="CG76" s="57"/>
-      <c r="CH76" s="57"/>
-      <c r="CJ76" s="54"/>
-      <c r="CK76" s="53"/>
-      <c r="CL76" s="54"/>
-      <c r="CM76" s="56"/>
-      <c r="CN76" s="57"/>
-      <c r="CO76" s="57"/>
-      <c r="CP76" s="57"/>
-      <c r="CR76" s="54"/>
-      <c r="CS76" s="53"/>
-      <c r="CT76" s="54"/>
-      <c r="CU76" s="56"/>
-      <c r="CV76" s="56"/>
-      <c r="CW76" s="57"/>
-      <c r="CX76" s="57"/>
-      <c r="CY76" s="57"/>
-    </row>
-    <row r="77" spans="1:103" s="58" customFormat="1" ht="20" customHeight="1">
-      <c r="A77" s="53"/>
-      <c r="B77" s="54"/>
-      <c r="D77" s="59"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="61"/>
+    <row r="77" spans="1:103" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A77" s="15"/>
+      <c r="B77" s="34"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="14"/>
       <c r="G77" s="35"/>
-      <c r="I77" s="53"/>
-      <c r="J77" s="54"/>
-      <c r="L77" s="59"/>
-      <c r="N77" s="59"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="34"/>
+      <c r="L77" s="51"/>
+      <c r="N77" s="51"/>
       <c r="O77" s="37"/>
-      <c r="Q77" s="53"/>
-      <c r="R77" s="54"/>
-      <c r="T77" s="59"/>
-      <c r="V77" s="59"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="34"/>
+      <c r="T77" s="51"/>
+      <c r="V77" s="51"/>
       <c r="W77" s="37"/>
-      <c r="Y77" s="53"/>
-      <c r="Z77" s="54"/>
-      <c r="AB77" s="59"/>
-      <c r="AC77" s="59"/>
-      <c r="AD77" s="59"/>
+      <c r="Y77" s="15"/>
+      <c r="Z77" s="34"/>
+      <c r="AB77" s="51"/>
+      <c r="AC77" s="51"/>
+      <c r="AD77" s="51"/>
       <c r="AE77" s="37"/>
-      <c r="AG77" s="53"/>
-      <c r="AH77" s="54"/>
-      <c r="AJ77" s="59"/>
-      <c r="AL77" s="59"/>
+      <c r="AG77" s="15"/>
+      <c r="AH77" s="34"/>
+      <c r="AJ77" s="51"/>
+      <c r="AL77" s="51"/>
       <c r="AM77" s="37"/>
-      <c r="AO77" s="53"/>
-      <c r="AP77" s="54"/>
-      <c r="AR77" s="59"/>
-      <c r="AT77" s="59"/>
+      <c r="AO77" s="15"/>
+      <c r="AP77" s="34"/>
+      <c r="AR77" s="51"/>
+      <c r="AT77" s="51"/>
       <c r="AU77" s="37"/>
-      <c r="AW77" s="53"/>
-      <c r="AX77" s="54"/>
-      <c r="AZ77" s="59"/>
-      <c r="BB77" s="59"/>
+      <c r="AW77" s="15"/>
+      <c r="AX77" s="34"/>
+      <c r="AZ77" s="51"/>
+      <c r="BB77" s="51"/>
       <c r="BC77" s="37"/>
-      <c r="BE77" s="53"/>
-      <c r="BF77" s="54"/>
-      <c r="BH77" s="59"/>
-      <c r="BJ77" s="59"/>
+      <c r="BE77" s="15"/>
+      <c r="BF77" s="34"/>
+      <c r="BH77" s="51"/>
+      <c r="BJ77" s="51"/>
       <c r="BK77" s="37"/>
       <c r="BL77" s="37"/>
-      <c r="BM77" s="53"/>
-      <c r="BN77" s="54"/>
-      <c r="BP77" s="59"/>
-      <c r="BR77" s="59"/>
+      <c r="BM77" s="15"/>
+      <c r="BN77" s="34"/>
+      <c r="BP77" s="51"/>
+      <c r="BR77" s="51"/>
       <c r="BS77" s="37"/>
-      <c r="BU77" s="53"/>
-      <c r="BV77" s="54"/>
-      <c r="BW77" s="59"/>
-      <c r="BX77" s="59"/>
-      <c r="BZ77" s="59"/>
+      <c r="BU77" s="15"/>
+      <c r="BV77" s="34"/>
+      <c r="BW77" s="51"/>
+      <c r="BX77" s="51"/>
+      <c r="BZ77" s="51"/>
       <c r="CA77" s="37"/>
-      <c r="CC77" s="53"/>
-      <c r="CD77" s="54"/>
-      <c r="CE77" s="59"/>
-      <c r="CF77" s="59"/>
-      <c r="CH77" s="59"/>
+      <c r="CC77" s="15"/>
+      <c r="CD77" s="34"/>
+      <c r="CE77" s="51"/>
+      <c r="CF77" s="51"/>
+      <c r="CH77" s="51"/>
       <c r="CI77" s="37"/>
-      <c r="CK77" s="53"/>
-      <c r="CL77" s="54"/>
-      <c r="CM77" s="59"/>
-      <c r="CN77" s="59"/>
-      <c r="CP77" s="59"/>
+      <c r="CK77" s="15"/>
+      <c r="CL77" s="34"/>
+      <c r="CM77" s="51"/>
+      <c r="CN77" s="51"/>
+      <c r="CP77" s="51"/>
       <c r="CQ77" s="37"/>
-      <c r="CS77" s="53"/>
-      <c r="CT77" s="54"/>
-      <c r="CU77" s="59"/>
-      <c r="CV77" s="59"/>
-      <c r="CX77" s="59"/>
+      <c r="CS77" s="15"/>
+      <c r="CT77" s="34"/>
+      <c r="CU77" s="51"/>
+      <c r="CV77" s="51"/>
+      <c r="CX77" s="51"/>
       <c r="CY77" s="37"/>
     </row>
-    <row r="78" spans="1:103" s="58" customFormat="1" ht="20" customHeight="1">
-      <c r="A78" s="53"/>
-      <c r="B78" s="54"/>
-      <c r="D78" s="59"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="61"/>
+    <row r="78" spans="1:103" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A78" s="15"/>
+      <c r="B78" s="34"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="14"/>
       <c r="G78" s="35"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="54"/>
-      <c r="L78" s="59"/>
-      <c r="N78" s="59"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="34"/>
+      <c r="L78" s="51"/>
+      <c r="N78" s="51"/>
       <c r="O78" s="37"/>
-      <c r="Q78" s="53"/>
-      <c r="R78" s="54"/>
-      <c r="T78" s="59"/>
-      <c r="V78" s="59"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="34"/>
+      <c r="T78" s="51"/>
+      <c r="V78" s="51"/>
       <c r="W78" s="37"/>
-      <c r="Y78" s="53"/>
-      <c r="Z78" s="54"/>
-      <c r="AB78" s="59"/>
-      <c r="AC78" s="59"/>
-      <c r="AD78" s="59"/>
+      <c r="Y78" s="15"/>
+      <c r="Z78" s="34"/>
+      <c r="AB78" s="51"/>
+      <c r="AC78" s="51"/>
+      <c r="AD78" s="51"/>
       <c r="AE78" s="37"/>
-      <c r="AG78" s="53"/>
-      <c r="AH78" s="54"/>
-      <c r="AJ78" s="59"/>
-      <c r="AL78" s="59"/>
+      <c r="AG78" s="15"/>
+      <c r="AH78" s="34"/>
+      <c r="AJ78" s="51"/>
+      <c r="AL78" s="51"/>
       <c r="AM78" s="37"/>
-      <c r="AO78" s="53"/>
-      <c r="AP78" s="54"/>
-      <c r="AR78" s="59"/>
-      <c r="AT78" s="59"/>
+      <c r="AO78" s="15"/>
+      <c r="AP78" s="34"/>
+      <c r="AR78" s="51"/>
+      <c r="AT78" s="51"/>
       <c r="AU78" s="37"/>
-      <c r="AW78" s="53"/>
-      <c r="AX78" s="54"/>
-      <c r="AZ78" s="59"/>
-      <c r="BB78" s="59"/>
+      <c r="AW78" s="15"/>
+      <c r="AX78" s="34"/>
+      <c r="AZ78" s="51"/>
+      <c r="BB78" s="51"/>
       <c r="BC78" s="37"/>
-      <c r="BE78" s="53"/>
-      <c r="BF78" s="54"/>
-      <c r="BH78" s="59"/>
-      <c r="BJ78" s="59"/>
+      <c r="BE78" s="15"/>
+      <c r="BF78" s="34"/>
+      <c r="BH78" s="51"/>
+      <c r="BJ78" s="51"/>
       <c r="BK78" s="37"/>
       <c r="BL78" s="37"/>
-      <c r="BM78" s="53"/>
-      <c r="BN78" s="54"/>
-      <c r="BP78" s="59"/>
-      <c r="BR78" s="59"/>
+      <c r="BM78" s="15"/>
+      <c r="BN78" s="34"/>
+      <c r="BP78" s="51"/>
+      <c r="BR78" s="51"/>
       <c r="BS78" s="37"/>
-      <c r="BU78" s="53"/>
-      <c r="BV78" s="54"/>
-      <c r="BW78" s="59"/>
-      <c r="BX78" s="59"/>
-      <c r="BZ78" s="59"/>
+      <c r="BU78" s="15"/>
+      <c r="BV78" s="34"/>
+      <c r="BW78" s="51"/>
+      <c r="BX78" s="51"/>
+      <c r="BZ78" s="51"/>
       <c r="CA78" s="37"/>
-      <c r="CC78" s="53"/>
-      <c r="CD78" s="54"/>
-      <c r="CE78" s="59"/>
-      <c r="CF78" s="59"/>
-      <c r="CH78" s="59"/>
+      <c r="CC78" s="15"/>
+      <c r="CD78" s="34"/>
+      <c r="CE78" s="51"/>
+      <c r="CF78" s="51"/>
+      <c r="CH78" s="51"/>
       <c r="CI78" s="37"/>
-      <c r="CK78" s="53"/>
-      <c r="CL78" s="54"/>
-      <c r="CM78" s="59"/>
-      <c r="CN78" s="59"/>
-      <c r="CP78" s="59"/>
+      <c r="CK78" s="15"/>
+      <c r="CL78" s="34"/>
+      <c r="CM78" s="51"/>
+      <c r="CN78" s="51"/>
+      <c r="CP78" s="51"/>
       <c r="CQ78" s="37"/>
-      <c r="CS78" s="53"/>
-      <c r="CT78" s="54"/>
-      <c r="CU78" s="59"/>
-      <c r="CV78" s="59"/>
-      <c r="CX78" s="59"/>
+      <c r="CS78" s="15"/>
+      <c r="CT78" s="34"/>
+      <c r="CU78" s="51"/>
+      <c r="CV78" s="51"/>
+      <c r="CX78" s="51"/>
       <c r="CY78" s="37"/>
     </row>
-    <row r="79" spans="1:103" s="58" customFormat="1" ht="20" customHeight="1">
-      <c r="A79" s="53"/>
-      <c r="B79" s="54"/>
-      <c r="D79" s="59"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="61"/>
+    <row r="79" spans="1:103" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A79" s="15"/>
+      <c r="B79" s="34"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="14"/>
       <c r="G79" s="35"/>
-      <c r="I79" s="53"/>
-      <c r="J79" s="54"/>
-      <c r="L79" s="59"/>
-      <c r="N79" s="59"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="34"/>
+      <c r="L79" s="51"/>
+      <c r="N79" s="51"/>
       <c r="O79" s="37"/>
-      <c r="Q79" s="53"/>
-      <c r="R79" s="54"/>
-      <c r="T79" s="59"/>
-      <c r="V79" s="59"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="34"/>
+      <c r="T79" s="51"/>
+      <c r="V79" s="51"/>
       <c r="W79" s="37"/>
-      <c r="Y79" s="53"/>
-      <c r="Z79" s="54"/>
-      <c r="AB79" s="59"/>
-      <c r="AC79" s="59"/>
-      <c r="AD79" s="59"/>
+      <c r="Y79" s="15"/>
+      <c r="Z79" s="34"/>
+      <c r="AB79" s="51"/>
+      <c r="AC79" s="51"/>
+      <c r="AD79" s="51"/>
       <c r="AE79" s="37"/>
-      <c r="AG79" s="53"/>
-      <c r="AH79" s="54"/>
-      <c r="AJ79" s="59"/>
-      <c r="AL79" s="59"/>
+      <c r="AG79" s="15"/>
+      <c r="AH79" s="34"/>
+      <c r="AJ79" s="51"/>
+      <c r="AL79" s="51"/>
       <c r="AM79" s="37"/>
-      <c r="AO79" s="53"/>
-      <c r="AP79" s="54"/>
-      <c r="AR79" s="59"/>
-      <c r="AT79" s="59"/>
+      <c r="AO79" s="15"/>
+      <c r="AP79" s="34"/>
+      <c r="AR79" s="51"/>
+      <c r="AT79" s="51"/>
       <c r="AU79" s="37"/>
-      <c r="AW79" s="53"/>
-      <c r="AX79" s="54"/>
-      <c r="AZ79" s="59"/>
-      <c r="BB79" s="59"/>
+      <c r="AW79" s="15"/>
+      <c r="AX79" s="34"/>
+      <c r="AZ79" s="51"/>
+      <c r="BB79" s="51"/>
       <c r="BC79" s="37"/>
-      <c r="BE79" s="53"/>
-      <c r="BF79" s="54"/>
-      <c r="BH79" s="59"/>
-      <c r="BJ79" s="59"/>
+      <c r="BE79" s="15"/>
+      <c r="BF79" s="34"/>
+      <c r="BH79" s="51"/>
+      <c r="BJ79" s="51"/>
       <c r="BK79" s="37"/>
       <c r="BL79" s="37"/>
-      <c r="BM79" s="53"/>
-      <c r="BN79" s="54"/>
-      <c r="BP79" s="59"/>
-      <c r="BR79" s="59"/>
+      <c r="BM79" s="15"/>
+      <c r="BN79" s="34"/>
+      <c r="BP79" s="51"/>
+      <c r="BR79" s="51"/>
       <c r="BS79" s="37"/>
-      <c r="BU79" s="53"/>
-      <c r="BV79" s="54"/>
-      <c r="BW79" s="59"/>
-      <c r="BX79" s="59"/>
-      <c r="BZ79" s="59"/>
+      <c r="BU79" s="15"/>
+      <c r="BV79" s="34"/>
+      <c r="BW79" s="51"/>
+      <c r="BX79" s="51"/>
+      <c r="BZ79" s="51"/>
       <c r="CA79" s="37"/>
-      <c r="CC79" s="53"/>
-      <c r="CD79" s="54"/>
-      <c r="CE79" s="59"/>
-      <c r="CF79" s="59"/>
-      <c r="CH79" s="59"/>
+      <c r="CC79" s="15"/>
+      <c r="CD79" s="34"/>
+      <c r="CE79" s="51"/>
+      <c r="CF79" s="51"/>
+      <c r="CH79" s="51"/>
       <c r="CI79" s="37"/>
-      <c r="CK79" s="53"/>
-      <c r="CL79" s="54"/>
-      <c r="CM79" s="59"/>
-      <c r="CN79" s="59"/>
-      <c r="CP79" s="59"/>
+      <c r="CK79" s="15"/>
+      <c r="CL79" s="34"/>
+      <c r="CM79" s="51"/>
+      <c r="CN79" s="51"/>
+      <c r="CP79" s="51"/>
       <c r="CQ79" s="37"/>
-      <c r="CS79" s="53"/>
-      <c r="CT79" s="54"/>
-      <c r="CU79" s="59"/>
-      <c r="CV79" s="59"/>
-      <c r="CX79" s="59"/>
+      <c r="CS79" s="15"/>
+      <c r="CT79" s="34"/>
+      <c r="CU79" s="51"/>
+      <c r="CV79" s="51"/>
+      <c r="CX79" s="51"/>
       <c r="CY79" s="37"/>
     </row>
-    <row r="80" spans="1:103" s="58" customFormat="1" ht="20" customHeight="1">
-      <c r="A80" s="53"/>
-      <c r="B80" s="54"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="61"/>
+    <row r="80" spans="1:103" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A80" s="15"/>
+      <c r="B80" s="34"/>
+      <c r="D80" s="51"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="14"/>
       <c r="G80" s="35"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="54"/>
-      <c r="L80" s="59"/>
-      <c r="N80" s="59"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="34"/>
+      <c r="L80" s="51"/>
+      <c r="N80" s="51"/>
       <c r="O80" s="37"/>
-      <c r="Q80" s="53"/>
-      <c r="R80" s="54"/>
-      <c r="T80" s="59"/>
-      <c r="V80" s="59"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="34"/>
+      <c r="T80" s="51"/>
+      <c r="V80" s="51"/>
       <c r="W80" s="37"/>
-      <c r="Y80" s="53"/>
-      <c r="Z80" s="54"/>
-      <c r="AB80" s="59"/>
-      <c r="AC80" s="59"/>
-      <c r="AD80" s="59"/>
+      <c r="Y80" s="15"/>
+      <c r="Z80" s="34"/>
+      <c r="AB80" s="51"/>
+      <c r="AC80" s="51"/>
+      <c r="AD80" s="51"/>
       <c r="AE80" s="37"/>
-      <c r="AG80" s="53"/>
-      <c r="AH80" s="54"/>
-      <c r="AJ80" s="59"/>
-      <c r="AL80" s="59"/>
+      <c r="AG80" s="15"/>
+      <c r="AH80" s="34"/>
+      <c r="AJ80" s="51"/>
+      <c r="AL80" s="51"/>
       <c r="AM80" s="37"/>
-      <c r="AO80" s="53"/>
-      <c r="AP80" s="54"/>
-      <c r="AR80" s="59"/>
-      <c r="AT80" s="59"/>
+      <c r="AO80" s="15"/>
+      <c r="AP80" s="34"/>
+      <c r="AR80" s="51"/>
+      <c r="AT80" s="51"/>
       <c r="AU80" s="37"/>
-      <c r="AW80" s="53"/>
-      <c r="AX80" s="54"/>
-      <c r="AZ80" s="59"/>
-      <c r="BB80" s="59"/>
+      <c r="AW80" s="15"/>
+      <c r="AX80" s="34"/>
+      <c r="AZ80" s="51"/>
+      <c r="BB80" s="51"/>
       <c r="BC80" s="37"/>
-      <c r="BE80" s="53"/>
-      <c r="BF80" s="54"/>
-      <c r="BH80" s="59"/>
-      <c r="BJ80" s="59"/>
+      <c r="BE80" s="15"/>
+      <c r="BF80" s="34"/>
+      <c r="BH80" s="51"/>
+      <c r="BJ80" s="51"/>
       <c r="BK80" s="37"/>
       <c r="BL80" s="37"/>
-      <c r="BM80" s="53"/>
-      <c r="BN80" s="54"/>
-      <c r="BP80" s="59"/>
-      <c r="BR80" s="59"/>
+      <c r="BM80" s="15"/>
+      <c r="BN80" s="34"/>
+      <c r="BP80" s="51"/>
+      <c r="BR80" s="51"/>
       <c r="BS80" s="37"/>
-      <c r="BU80" s="53"/>
-      <c r="BV80" s="54"/>
-      <c r="BW80" s="59"/>
-      <c r="BX80" s="59"/>
-      <c r="BZ80" s="59"/>
+      <c r="BU80" s="15"/>
+      <c r="BV80" s="34"/>
+      <c r="BW80" s="51"/>
+      <c r="BX80" s="51"/>
+      <c r="BZ80" s="51"/>
       <c r="CA80" s="37"/>
-      <c r="CC80" s="53"/>
-      <c r="CD80" s="54"/>
-      <c r="CE80" s="59"/>
-      <c r="CF80" s="59"/>
-      <c r="CH80" s="59"/>
+      <c r="CC80" s="15"/>
+      <c r="CD80" s="34"/>
+      <c r="CE80" s="51"/>
+      <c r="CF80" s="51"/>
+      <c r="CH80" s="51"/>
       <c r="CI80" s="37"/>
-      <c r="CK80" s="53"/>
-      <c r="CL80" s="54"/>
-      <c r="CM80" s="59"/>
-      <c r="CN80" s="59"/>
-      <c r="CP80" s="59"/>
+      <c r="CK80" s="15"/>
+      <c r="CL80" s="34"/>
+      <c r="CM80" s="51"/>
+      <c r="CN80" s="51"/>
+      <c r="CP80" s="51"/>
       <c r="CQ80" s="37"/>
-      <c r="CS80" s="53"/>
-      <c r="CT80" s="54"/>
-      <c r="CU80" s="59"/>
-      <c r="CV80" s="59"/>
-      <c r="CX80" s="59"/>
+      <c r="CS80" s="15"/>
+      <c r="CT80" s="34"/>
+      <c r="CU80" s="51"/>
+      <c r="CV80" s="51"/>
+      <c r="CX80" s="51"/>
       <c r="CY80" s="37"/>
     </row>
-    <row r="81" spans="1:103" s="58" customFormat="1" ht="20" customHeight="1">
-      <c r="A81" s="53"/>
-      <c r="B81" s="54"/>
-      <c r="D81" s="59"/>
-      <c r="E81" s="60"/>
-      <c r="F81" s="61"/>
+    <row r="81" spans="1:103" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A81" s="15"/>
+      <c r="B81" s="34"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="14"/>
       <c r="G81" s="35"/>
-      <c r="I81" s="53"/>
-      <c r="J81" s="54"/>
-      <c r="L81" s="59"/>
-      <c r="N81" s="59"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="34"/>
+      <c r="L81" s="51"/>
+      <c r="N81" s="51"/>
       <c r="O81" s="37"/>
-      <c r="Q81" s="53"/>
-      <c r="R81" s="54"/>
-      <c r="T81" s="59"/>
-      <c r="V81" s="59"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="34"/>
+      <c r="T81" s="51"/>
+      <c r="V81" s="51"/>
       <c r="W81" s="37"/>
-      <c r="Y81" s="53"/>
-      <c r="Z81" s="54"/>
-      <c r="AB81" s="59"/>
-      <c r="AD81" s="59"/>
+      <c r="Y81" s="15"/>
+      <c r="Z81" s="34"/>
+      <c r="AB81" s="51"/>
+      <c r="AD81" s="51"/>
       <c r="AE81" s="37"/>
-      <c r="AG81" s="53"/>
-      <c r="AH81" s="54"/>
-      <c r="AJ81" s="59"/>
-      <c r="AL81" s="59"/>
+      <c r="AG81" s="15"/>
+      <c r="AH81" s="34"/>
+      <c r="AJ81" s="51"/>
+      <c r="AL81" s="51"/>
       <c r="AM81" s="37"/>
-      <c r="AO81" s="53"/>
-      <c r="AP81" s="54"/>
-      <c r="AR81" s="59"/>
-      <c r="AT81" s="59"/>
+      <c r="AO81" s="15"/>
+      <c r="AP81" s="34"/>
+      <c r="AR81" s="51"/>
+      <c r="AT81" s="51"/>
       <c r="AU81" s="37"/>
-      <c r="AW81" s="53"/>
-      <c r="AX81" s="54"/>
-      <c r="AZ81" s="59"/>
-      <c r="BB81" s="59"/>
+      <c r="AW81" s="15"/>
+      <c r="AX81" s="34"/>
+      <c r="AZ81" s="51"/>
+      <c r="BB81" s="51"/>
       <c r="BC81" s="37"/>
-      <c r="BE81" s="53"/>
-      <c r="BF81" s="54"/>
-      <c r="BH81" s="59"/>
-      <c r="BJ81" s="59"/>
+      <c r="BE81" s="15"/>
+      <c r="BF81" s="34"/>
+      <c r="BH81" s="51"/>
+      <c r="BJ81" s="51"/>
       <c r="BK81" s="37"/>
       <c r="BL81" s="37"/>
-      <c r="BM81" s="53"/>
-      <c r="BN81" s="54"/>
-      <c r="BP81" s="59"/>
-      <c r="BR81" s="59"/>
+      <c r="BM81" s="15"/>
+      <c r="BN81" s="34"/>
+      <c r="BP81" s="51"/>
+      <c r="BR81" s="51"/>
       <c r="BS81" s="37"/>
-      <c r="BU81" s="53"/>
-      <c r="BV81" s="54"/>
-      <c r="BW81" s="59"/>
-      <c r="BX81" s="59"/>
-      <c r="BZ81" s="59"/>
+      <c r="BU81" s="15"/>
+      <c r="BV81" s="34"/>
+      <c r="BW81" s="51"/>
+      <c r="BX81" s="51"/>
+      <c r="BZ81" s="51"/>
       <c r="CA81" s="37"/>
-      <c r="CC81" s="53"/>
-      <c r="CD81" s="54"/>
-      <c r="CE81" s="59"/>
-      <c r="CF81" s="59"/>
-      <c r="CH81" s="59"/>
+      <c r="CC81" s="15"/>
+      <c r="CD81" s="34"/>
+      <c r="CE81" s="51"/>
+      <c r="CF81" s="51"/>
+      <c r="CH81" s="51"/>
       <c r="CI81" s="37"/>
-      <c r="CK81" s="53"/>
-      <c r="CL81" s="54"/>
-      <c r="CM81" s="59"/>
-      <c r="CN81" s="59"/>
-      <c r="CP81" s="59"/>
+      <c r="CK81" s="15"/>
+      <c r="CL81" s="34"/>
+      <c r="CM81" s="51"/>
+      <c r="CN81" s="51"/>
+      <c r="CP81" s="51"/>
       <c r="CQ81" s="37"/>
-      <c r="CS81" s="53"/>
-      <c r="CT81" s="54"/>
-      <c r="CU81" s="59"/>
-      <c r="CV81" s="59"/>
-      <c r="CX81" s="59"/>
+      <c r="CS81" s="15"/>
+      <c r="CT81" s="34"/>
+      <c r="CU81" s="51"/>
+      <c r="CV81" s="51"/>
+      <c r="CX81" s="51"/>
       <c r="CY81" s="37"/>
     </row>
-    <row r="82" spans="1:103" s="58" customFormat="1" ht="20" customHeight="1">
-      <c r="A82" s="53"/>
-      <c r="B82" s="54"/>
-      <c r="D82" s="59"/>
-      <c r="E82" s="60"/>
-      <c r="F82" s="61"/>
+    <row r="82" spans="1:103" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A82" s="15"/>
+      <c r="B82" s="34"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="14"/>
       <c r="G82" s="35"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="54"/>
-      <c r="L82" s="59"/>
-      <c r="N82" s="59"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="34"/>
+      <c r="L82" s="51"/>
+      <c r="N82" s="51"/>
       <c r="O82" s="37"/>
-      <c r="Q82" s="53"/>
-      <c r="R82" s="54"/>
-      <c r="T82" s="59"/>
-      <c r="V82" s="59"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="34"/>
+      <c r="T82" s="51"/>
+      <c r="V82" s="51"/>
       <c r="W82" s="37"/>
-      <c r="Y82" s="53"/>
-      <c r="Z82" s="54"/>
-      <c r="AB82" s="59"/>
-      <c r="AD82" s="59"/>
+      <c r="Y82" s="15"/>
+      <c r="Z82" s="34"/>
+      <c r="AB82" s="51"/>
+      <c r="AD82" s="51"/>
       <c r="AE82" s="37"/>
-      <c r="AG82" s="53"/>
-      <c r="AH82" s="54"/>
-      <c r="AJ82" s="59"/>
-      <c r="AL82" s="59"/>
+      <c r="AG82" s="15"/>
+      <c r="AH82" s="34"/>
+      <c r="AJ82" s="51"/>
+      <c r="AL82" s="51"/>
       <c r="AM82" s="37"/>
-      <c r="AO82" s="53"/>
-      <c r="AP82" s="54"/>
-      <c r="AR82" s="59"/>
-      <c r="AT82" s="59"/>
+      <c r="AO82" s="15"/>
+      <c r="AP82" s="34"/>
+      <c r="AR82" s="51"/>
+      <c r="AT82" s="51"/>
       <c r="AU82" s="37"/>
-      <c r="AW82" s="53"/>
-      <c r="AX82" s="54"/>
-      <c r="AZ82" s="59"/>
-      <c r="BB82" s="59"/>
+      <c r="AW82" s="15"/>
+      <c r="AX82" s="34"/>
+      <c r="AZ82" s="51"/>
+      <c r="BB82" s="51"/>
       <c r="BC82" s="37"/>
-      <c r="BE82" s="53"/>
-      <c r="BF82" s="54"/>
-      <c r="BH82" s="59"/>
-      <c r="BJ82" s="59"/>
+      <c r="BE82" s="15"/>
+      <c r="BF82" s="34"/>
+      <c r="BH82" s="51"/>
+      <c r="BJ82" s="51"/>
       <c r="BK82" s="37"/>
       <c r="BL82" s="37"/>
-      <c r="BM82" s="53"/>
-      <c r="BN82" s="54"/>
-      <c r="BP82" s="59"/>
-      <c r="BR82" s="59"/>
+      <c r="BM82" s="15"/>
+      <c r="BN82" s="34"/>
+      <c r="BP82" s="51"/>
+      <c r="BR82" s="51"/>
       <c r="BS82" s="37"/>
-      <c r="BU82" s="53"/>
-      <c r="BV82" s="54"/>
-      <c r="BW82" s="59"/>
-      <c r="BX82" s="59"/>
-      <c r="BZ82" s="59"/>
+      <c r="BU82" s="15"/>
+      <c r="BV82" s="34"/>
+      <c r="BW82" s="51"/>
+      <c r="BX82" s="51"/>
+      <c r="BZ82" s="51"/>
       <c r="CA82" s="37"/>
-      <c r="CC82" s="53"/>
-      <c r="CD82" s="54"/>
-      <c r="CE82" s="59"/>
-      <c r="CF82" s="59"/>
-      <c r="CH82" s="59"/>
+      <c r="CC82" s="15"/>
+      <c r="CD82" s="34"/>
+      <c r="CE82" s="51"/>
+      <c r="CF82" s="51"/>
+      <c r="CH82" s="51"/>
       <c r="CI82" s="37"/>
-      <c r="CK82" s="53"/>
-      <c r="CL82" s="54"/>
-      <c r="CM82" s="59"/>
-      <c r="CN82" s="59"/>
-      <c r="CP82" s="59"/>
+      <c r="CK82" s="15"/>
+      <c r="CL82" s="34"/>
+      <c r="CM82" s="51"/>
+      <c r="CN82" s="51"/>
+      <c r="CP82" s="51"/>
       <c r="CQ82" s="37"/>
-      <c r="CS82" s="53"/>
-      <c r="CT82" s="54"/>
-      <c r="CU82" s="59"/>
-      <c r="CV82" s="59"/>
-      <c r="CX82" s="59"/>
+      <c r="CS82" s="15"/>
+      <c r="CT82" s="34"/>
+      <c r="CU82" s="51"/>
+      <c r="CV82" s="51"/>
+      <c r="CX82" s="51"/>
       <c r="CY82" s="37"/>
     </row>
-    <row r="83" spans="1:103" s="58" customFormat="1" ht="20" customHeight="1">
-      <c r="A83" s="53"/>
-      <c r="B83" s="54"/>
-      <c r="D83" s="59"/>
-      <c r="E83" s="60"/>
-      <c r="F83" s="61"/>
+    <row r="83" spans="1:103" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A83" s="15"/>
+      <c r="B83" s="34"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="14"/>
       <c r="G83" s="35"/>
-      <c r="I83" s="53"/>
-      <c r="J83" s="54"/>
-      <c r="L83" s="59"/>
-      <c r="N83" s="59"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="34"/>
+      <c r="L83" s="51"/>
+      <c r="N83" s="51"/>
       <c r="O83" s="37"/>
-      <c r="Q83" s="53"/>
-      <c r="R83" s="54"/>
-      <c r="T83" s="59"/>
-      <c r="V83" s="59"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="34"/>
+      <c r="T83" s="51"/>
+      <c r="V83" s="51"/>
       <c r="W83" s="37"/>
-      <c r="Y83" s="53"/>
-      <c r="Z83" s="54"/>
-      <c r="AB83" s="59"/>
-      <c r="AD83" s="59"/>
+      <c r="Y83" s="15"/>
+      <c r="Z83" s="34"/>
+      <c r="AB83" s="51"/>
+      <c r="AD83" s="51"/>
       <c r="AE83" s="37"/>
-      <c r="AG83" s="53"/>
-      <c r="AH83" s="54"/>
-      <c r="AJ83" s="59"/>
-      <c r="AL83" s="59"/>
+      <c r="AG83" s="15"/>
+      <c r="AH83" s="34"/>
+      <c r="AJ83" s="51"/>
+      <c r="AL83" s="51"/>
       <c r="AM83" s="37"/>
-      <c r="AO83" s="53"/>
-      <c r="AP83" s="54"/>
-      <c r="AR83" s="59"/>
-      <c r="AT83" s="59"/>
+      <c r="AO83" s="15"/>
+      <c r="AP83" s="34"/>
+      <c r="AR83" s="51"/>
+      <c r="AT83" s="51"/>
       <c r="AU83" s="37"/>
-      <c r="AW83" s="53"/>
-      <c r="AX83" s="54"/>
-      <c r="AZ83" s="59"/>
-      <c r="BB83" s="59"/>
+      <c r="AW83" s="15"/>
+      <c r="AX83" s="34"/>
+      <c r="AZ83" s="51"/>
+      <c r="BB83" s="51"/>
       <c r="BC83" s="37"/>
-      <c r="BE83" s="53"/>
-      <c r="BF83" s="54"/>
-      <c r="BH83" s="59"/>
-      <c r="BJ83" s="59"/>
+      <c r="BE83" s="15"/>
+      <c r="BF83" s="34"/>
+      <c r="BH83" s="51"/>
+      <c r="BJ83" s="51"/>
       <c r="BK83" s="37"/>
       <c r="BL83" s="37"/>
-      <c r="BM83" s="53"/>
-      <c r="BN83" s="54"/>
-      <c r="BP83" s="59"/>
-      <c r="BR83" s="59"/>
+      <c r="BM83" s="15"/>
+      <c r="BN83" s="34"/>
+      <c r="BP83" s="51"/>
+      <c r="BR83" s="51"/>
       <c r="BS83" s="37"/>
-      <c r="BU83" s="53"/>
-      <c r="BV83" s="54"/>
-      <c r="BW83" s="59"/>
-      <c r="BX83" s="59"/>
-      <c r="BZ83" s="59"/>
+      <c r="BU83" s="15"/>
+      <c r="BV83" s="34"/>
+      <c r="BW83" s="51"/>
+      <c r="BX83" s="51"/>
+      <c r="BZ83" s="51"/>
       <c r="CA83" s="37"/>
-      <c r="CC83" s="53"/>
-      <c r="CD83" s="54"/>
-      <c r="CF83" s="59"/>
-      <c r="CH83" s="59"/>
+      <c r="CC83" s="15"/>
+      <c r="CD83" s="34"/>
+      <c r="CF83" s="51"/>
+      <c r="CH83" s="51"/>
       <c r="CI83" s="37"/>
-      <c r="CK83" s="53"/>
-      <c r="CL83" s="54"/>
-      <c r="CN83" s="59"/>
-      <c r="CP83" s="59"/>
+      <c r="CK83" s="15"/>
+      <c r="CL83" s="34"/>
+      <c r="CN83" s="51"/>
+      <c r="CP83" s="51"/>
       <c r="CQ83" s="37"/>
-      <c r="CS83" s="53"/>
-      <c r="CT83" s="54"/>
-      <c r="CV83" s="59"/>
-      <c r="CX83" s="59"/>
+      <c r="CS83" s="15"/>
+      <c r="CT83" s="34"/>
+      <c r="CV83" s="51"/>
+      <c r="CX83" s="51"/>
       <c r="CY83" s="37"/>
     </row>
-    <row r="84" spans="1:103" s="58" customFormat="1" ht="20" customHeight="1">
-      <c r="A84" s="53"/>
-      <c r="B84" s="54"/>
-      <c r="D84" s="59"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="61"/>
+    <row r="84" spans="1:103" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A84" s="15"/>
+      <c r="B84" s="34"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="14"/>
       <c r="G84" s="35"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="54"/>
-      <c r="L84" s="59"/>
-      <c r="N84" s="59"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="34"/>
+      <c r="L84" s="51"/>
+      <c r="N84" s="51"/>
       <c r="O84" s="37"/>
-      <c r="Q84" s="53"/>
-      <c r="R84" s="54"/>
-      <c r="T84" s="59"/>
-      <c r="V84" s="59"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="34"/>
+      <c r="T84" s="51"/>
+      <c r="V84" s="51"/>
       <c r="W84" s="37"/>
-      <c r="Y84" s="53"/>
-      <c r="Z84" s="54"/>
-      <c r="AB84" s="59"/>
-      <c r="AD84" s="59"/>
+      <c r="Y84" s="15"/>
+      <c r="Z84" s="34"/>
+      <c r="AB84" s="51"/>
+      <c r="AD84" s="51"/>
       <c r="AE84" s="37"/>
-      <c r="AG84" s="53"/>
-      <c r="AH84" s="54"/>
-      <c r="AJ84" s="59"/>
-      <c r="AL84" s="59"/>
+      <c r="AG84" s="15"/>
+      <c r="AH84" s="34"/>
+      <c r="AJ84" s="51"/>
+      <c r="AL84" s="51"/>
       <c r="AM84" s="37"/>
-      <c r="AO84" s="53"/>
-      <c r="AP84" s="54"/>
-      <c r="AR84" s="59"/>
-      <c r="AT84" s="59"/>
+      <c r="AO84" s="15"/>
+      <c r="AP84" s="34"/>
+      <c r="AR84" s="51"/>
+      <c r="AT84" s="51"/>
       <c r="AU84" s="37"/>
-      <c r="AW84" s="53"/>
-      <c r="AX84" s="54"/>
-      <c r="AZ84" s="59"/>
-      <c r="BB84" s="59"/>
+      <c r="AW84" s="15"/>
+      <c r="AX84" s="34"/>
+      <c r="AZ84" s="51"/>
+      <c r="BB84" s="51"/>
       <c r="BC84" s="37"/>
-      <c r="BE84" s="53"/>
-      <c r="BF84" s="54"/>
-      <c r="BH84" s="59"/>
-      <c r="BJ84" s="59"/>
+      <c r="BE84" s="15"/>
+      <c r="BF84" s="34"/>
+      <c r="BH84" s="51"/>
+      <c r="BJ84" s="51"/>
       <c r="BK84" s="37"/>
       <c r="BL84" s="37"/>
-      <c r="BM84" s="53"/>
-      <c r="BN84" s="54"/>
-      <c r="BP84" s="59"/>
-      <c r="BR84" s="59"/>
+      <c r="BM84" s="15"/>
+      <c r="BN84" s="34"/>
+      <c r="BP84" s="51"/>
+      <c r="BR84" s="51"/>
       <c r="BS84" s="37"/>
-      <c r="BU84" s="53"/>
-      <c r="BV84" s="54"/>
-      <c r="BW84" s="59"/>
-      <c r="BX84" s="59"/>
-      <c r="BZ84" s="59"/>
+      <c r="BU84" s="15"/>
+      <c r="BV84" s="34"/>
+      <c r="BW84" s="51"/>
+      <c r="BX84" s="51"/>
+      <c r="BZ84" s="51"/>
       <c r="CA84" s="37"/>
-      <c r="CC84" s="53"/>
-      <c r="CD84" s="54"/>
-      <c r="CF84" s="59"/>
-      <c r="CH84" s="59"/>
+      <c r="CC84" s="15"/>
+      <c r="CD84" s="34"/>
+      <c r="CF84" s="51"/>
+      <c r="CH84" s="51"/>
       <c r="CI84" s="37"/>
-      <c r="CK84" s="53"/>
-      <c r="CL84" s="54"/>
-      <c r="CN84" s="59"/>
-      <c r="CP84" s="59"/>
+      <c r="CK84" s="15"/>
+      <c r="CL84" s="34"/>
+      <c r="CN84" s="51"/>
+      <c r="CP84" s="51"/>
       <c r="CQ84" s="37"/>
-      <c r="CS84" s="53"/>
-      <c r="CT84" s="54"/>
-      <c r="CV84" s="59"/>
-      <c r="CX84" s="59"/>
+      <c r="CS84" s="15"/>
+      <c r="CT84" s="34"/>
+      <c r="CV84" s="51"/>
+      <c r="CX84" s="51"/>
       <c r="CY84" s="37"/>
     </row>
   </sheetData>
@@ -18355,7 +18071,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E7:G16 M7:O16 U7:W16 AC7:AE16 AK7:AM16 AS7:AU16 BA7:BC16 BI7:BK16 BQ7:BS16 BY7:CA16 CG7:CI16 CO7:CQ16 CW7:CY16 CW19:CY28 CO19:CQ28 CG19:CI28 BY19:CA28 BQ19:BS28 BI19:BK28 BA19:BC28 AS19:AU28 AK19:AM28 AC19:AE28 U19:W28 M19:O28 E19:G28 E31:G40 M31:O40 U31:W40 AC31:AE40 AK31:AM40 AS31:AU40 BA31:BC40 BI31:BK40 BQ31:BS40 BY31:CA40 CG31:CI40 CO31:CQ40 CW31:CY40 CW43:CY52 CO43:CQ52 CG43:CI52 BY43:CA52 BQ43:BS52 BI43:BK52 BA43:BC52 AS43:AU52 AK43:AM52 AC43:AE52 U43:W52 M43:O52 E43:G52 E55:G65 M55:O65 U55:W65 AC55:AE65 AK55:AM65 AS55:AU65 BA55:BC65 BI55:BK65 BQ55:BS65 BY55:CA65 CG55:CI65 CO55:CQ65 CW55:CY65</xm:sqref>
+          <xm:sqref>E7:G16 BY7:CA16 CG7:CI16 CO7:CQ16 CW7:CY16 E19:G28 BY19:CA28 CG19:CI28 CO19:CQ28 CW19:CY28 E31:G40 BY31:CA40 CG31:CI40 CO31:CQ40 CW31:CY40 E43:G52 BY43:CA52 CG43:CI52 CO43:CQ52 CW43:CY52 E55:G65 BY55:CA65 CG55:CI65 CO55:CQ65 CW55:CY65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="52" operator="containsText" id="{A7CC93F5-F0BA-A84F-9AC4-50BD3E4C45DA}">
@@ -18370,6 +18086,18 @@
           <xm:sqref>E77:G84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{75F280B3-7635-6C45-97F4-19290307C6C2}">
+            <xm:f>NOT(ISERROR(SEARCH("-",M5)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFF0000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M5:O65</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="51" operator="containsText" id="{F15C7D5F-EDD2-524F-9678-783135074230}">
             <xm:f>NOT(ISERROR(SEARCH("-",M77)))</xm:f>
             <xm:f>"-"</xm:f>
@@ -18380,6 +18108,18 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>M77:O84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{1343FDA6-7BE5-2347-A617-4245C7D02C1A}">
+            <xm:f>NOT(ISERROR(SEARCH("-",U5)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFF0000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>U5:W65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="50" operator="containsText" id="{82A72351-DCDA-384D-ADA3-1D3A41272FDE}">
@@ -18394,6 +18134,18 @@
           <xm:sqref>U77:W84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{7363EF46-899D-AC48-8D0D-34996D1A66FB}">
+            <xm:f>NOT(ISERROR(SEARCH("-",AC5)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFF0000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AC5:AE65</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="41" operator="containsText" id="{075232D6-7DBC-A842-9BF2-1B66F48B6AA6}">
             <xm:f>NOT(ISERROR(SEARCH("-",AC77)))</xm:f>
             <xm:f>"-"</xm:f>
@@ -18404,6 +18156,18 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>AC77:AE84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{E60BAFCE-1040-9140-B4DD-08072D9C9CE3}">
+            <xm:f>NOT(ISERROR(SEARCH("-",AK5)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFF0000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AK5:AM65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="49" operator="containsText" id="{698F2399-F192-A946-886A-F665C2B3AE00}">
@@ -18418,6 +18182,18 @@
           <xm:sqref>AK77:AM84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{391A4F98-7C5C-3B44-AF77-7A7E429C8839}">
+            <xm:f>NOT(ISERROR(SEARCH("-",AS5)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFF0000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AS5:AU65</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="42" operator="containsText" id="{76D77F1B-A45F-2544-A8FA-22CB3F295A19}">
             <xm:f>NOT(ISERROR(SEARCH("-",AS77)))</xm:f>
             <xm:f>"-"</xm:f>
@@ -18428,6 +18204,18 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>AS77:AU84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{21E861BB-C81A-D941-8541-E9CA394E3273}">
+            <xm:f>NOT(ISERROR(SEARCH("-",BA5)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFF0000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>BA5:BC65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="47" operator="containsText" id="{C0CA2086-6244-1743-BFE2-6A1F7B17A765}">
@@ -18442,6 +18230,18 @@
           <xm:sqref>BA77:BC84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{A7EA5B1F-7317-8D40-A652-3F2172F521D8}">
+            <xm:f>NOT(ISERROR(SEARCH("-",BI5)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFF0000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>BI5:BK65</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="48" operator="containsText" id="{5C661368-954A-9648-88A9-FFF4A6E4B185}">
             <xm:f>NOT(ISERROR(SEARCH("-",BI77)))</xm:f>
             <xm:f>"-"</xm:f>
@@ -18452,6 +18252,18 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>BI77:BK84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{8E9F7884-2F74-AB41-86FD-C49518434DB8}">
+            <xm:f>NOT(ISERROR(SEARCH("-",BQ5)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFF0000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>BQ5:BS65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="53" operator="containsText" id="{1BD22FD7-2A9F-8744-8956-C3632202952C}">
@@ -18513,486 +18325,6 @@
           </x14:cfRule>
           <xm:sqref>CW77:CY84</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="40" operator="containsText" id="{B44D79CE-64CE-BE4A-A533-E4D4E25BD37B}">
-            <xm:f>NOT(ISERROR(SEARCH("-",M5)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>M5:O6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="39" operator="containsText" id="{9E49ED56-E247-6A4C-B5B7-7D9D07C50C22}">
-            <xm:f>NOT(ISERROR(SEARCH("-",U5)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>U5:W6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="38" operator="containsText" id="{0B44A57C-292D-7A47-80A9-446974D64D07}">
-            <xm:f>NOT(ISERROR(SEARCH("-",AC5)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>AC5:AE6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="37" operator="containsText" id="{28EC1BA5-8532-FF4F-961A-2EF673624D3C}">
-            <xm:f>NOT(ISERROR(SEARCH("-",AK5)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>AK5:AM6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="36" operator="containsText" id="{9BD4A2A4-14E6-4C4C-9B7F-F51A6B5F0E27}">
-            <xm:f>NOT(ISERROR(SEARCH("-",AS5)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>AS5:AU6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="35" operator="containsText" id="{FBC439C8-D17C-224A-84D5-DA36A406CDE9}">
-            <xm:f>NOT(ISERROR(SEARCH("-",BA5)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>BA5:BC6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="34" operator="containsText" id="{4678907D-7585-114B-B0B9-AF7FEEB36A3D}">
-            <xm:f>NOT(ISERROR(SEARCH("-",BI5)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>BI5:BK6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="33" operator="containsText" id="{861255E2-2BD5-2243-BAF1-07F3056C2AC8}">
-            <xm:f>NOT(ISERROR(SEARCH("-",BQ5)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>BQ5:BS6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="32" operator="containsText" id="{650936E4-629C-944A-9D47-0E4298322D90}">
-            <xm:f>NOT(ISERROR(SEARCH("-",M17)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>M17:O18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="31" operator="containsText" id="{069CDFE0-E538-394C-A62F-31047D89C787}">
-            <xm:f>NOT(ISERROR(SEARCH("-",U17)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>U17:W18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="30" operator="containsText" id="{1AA9F23E-82E5-1846-991F-FED4D0090B48}">
-            <xm:f>NOT(ISERROR(SEARCH("-",AC17)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>AC17:AE18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="29" operator="containsText" id="{37A43850-79B7-014A-BB1E-7FDD6B3E1BBC}">
-            <xm:f>NOT(ISERROR(SEARCH("-",AK17)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>AK17:AM18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="28" operator="containsText" id="{CEBD6570-0138-FC4A-8B12-A9FE0126DAA5}">
-            <xm:f>NOT(ISERROR(SEARCH("-",AS17)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>AS17:AU18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="27" operator="containsText" id="{DF4559C2-FDAA-7C4E-81E4-3782088990F6}">
-            <xm:f>NOT(ISERROR(SEARCH("-",BA17)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>BA17:BC18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="26" operator="containsText" id="{0ABF179E-3A5F-0745-AF37-BD1C16F17400}">
-            <xm:f>NOT(ISERROR(SEARCH("-",BI17)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>BI17:BK18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="25" operator="containsText" id="{328A63EB-4A6E-0D40-853A-51E1326DEC45}">
-            <xm:f>NOT(ISERROR(SEARCH("-",BQ17)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>BQ17:BS18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="24" operator="containsText" id="{35BE2E48-7880-A641-AEDA-B2CB109D0F7C}">
-            <xm:f>NOT(ISERROR(SEARCH("-",M29)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>M29:O30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="23" operator="containsText" id="{662F5482-95D3-014A-9CAA-39DFF314156E}">
-            <xm:f>NOT(ISERROR(SEARCH("-",U29)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>U29:W30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{06075A69-E25F-7E41-B671-C471FF13D50C}">
-            <xm:f>NOT(ISERROR(SEARCH("-",AC29)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>AC29:AE30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{283F95A8-CEA5-BF49-9F2E-A2ECA9934D1D}">
-            <xm:f>NOT(ISERROR(SEARCH("-",AK29)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>AK29:AM30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="20" operator="containsText" id="{3FF051A2-35F3-C048-909E-A4455DC2BE2D}">
-            <xm:f>NOT(ISERROR(SEARCH("-",AS29)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>AS29:AU30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="19" operator="containsText" id="{4E22B377-2815-364B-A0CD-B929971CEC0F}">
-            <xm:f>NOT(ISERROR(SEARCH("-",BA29)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>BA29:BC30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{6534BECB-4B08-9E43-9D6C-44C77C98FCA1}">
-            <xm:f>NOT(ISERROR(SEARCH("-",BI29)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>BI29:BK30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{4CCEB0A9-DB5D-DD42-8A0A-8C6342DB8C7F}">
-            <xm:f>NOT(ISERROR(SEARCH("-",BQ29)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>BQ29:BS30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{E2D1D118-9A46-9644-94C9-0EE20067D6AA}">
-            <xm:f>NOT(ISERROR(SEARCH("-",M41)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>M41:O42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{D4878258-E77F-C540-9CFA-14C4BD311A82}">
-            <xm:f>NOT(ISERROR(SEARCH("-",U41)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>U41:W42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{11D12493-98FF-894F-85A9-DF02C97E4AA2}">
-            <xm:f>NOT(ISERROR(SEARCH("-",AC41)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>AC41:AE42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{3B614886-6138-8441-B708-637C29A79D51}">
-            <xm:f>NOT(ISERROR(SEARCH("-",AK41)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>AK41:AM42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{3E751DA1-D227-FC44-93A9-D921ABF259B9}">
-            <xm:f>NOT(ISERROR(SEARCH("-",AS41)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>AS41:AU42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{FF6BF672-C5F4-2B48-A314-F1FAB739927C}">
-            <xm:f>NOT(ISERROR(SEARCH("-",BA41)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>BA41:BC42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{C11ECFC3-BD10-8447-84EA-8D53D6F36F1B}">
-            <xm:f>NOT(ISERROR(SEARCH("-",BI41)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>BI41:BK42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{B7A919FC-A598-4C4E-836B-8A3D42C69056}">
-            <xm:f>NOT(ISERROR(SEARCH("-",BQ41)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>BQ41:BS42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{75F280B3-7635-6C45-97F4-19290307C6C2}">
-            <xm:f>NOT(ISERROR(SEARCH("-",M53)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>M53:O54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{1343FDA6-7BE5-2347-A617-4245C7D02C1A}">
-            <xm:f>NOT(ISERROR(SEARCH("-",U53)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>U53:W54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{7363EF46-899D-AC48-8D0D-34996D1A66FB}">
-            <xm:f>NOT(ISERROR(SEARCH("-",AC53)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>AC53:AE54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{E60BAFCE-1040-9140-B4DD-08072D9C9CE3}">
-            <xm:f>NOT(ISERROR(SEARCH("-",AK53)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>AK53:AM54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{391A4F98-7C5C-3B44-AF77-7A7E429C8839}">
-            <xm:f>NOT(ISERROR(SEARCH("-",AS53)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>AS53:AU54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{21E861BB-C81A-D941-8541-E9CA394E3273}">
-            <xm:f>NOT(ISERROR(SEARCH("-",BA53)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>BA53:BC54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{A7EA5B1F-7317-8D40-A652-3F2172F521D8}">
-            <xm:f>NOT(ISERROR(SEARCH("-",BI53)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>BI53:BK54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{8E9F7884-2F74-AB41-86FD-C49518434DB8}">
-            <xm:f>NOT(ISERROR(SEARCH("-",BQ53)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>BQ53:BS54</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
